--- a/Scripts/Kamper/H23/Avd B.xlsx
+++ b/Scripts/Kamper/H23/Avd B.xlsx
@@ -559,8 +559,14 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2" t="s">
         <v>24</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
@@ -585,8 +591,14 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
       <c r="C3" t="s">
         <v>24</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -611,8 +623,14 @@
       <c r="A4" t="s">
         <v>13</v>
       </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
       <c r="C4" t="s">
         <v>24</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -663,8 +681,14 @@
       <c r="A6" t="s">
         <v>15</v>
       </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
       <c r="C6" t="s">
         <v>24</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>

--- a/Scripts/Kamper/H23/Avd B.xlsx
+++ b/Scripts/Kamper/H23/Avd B.xlsx
@@ -713,8 +713,14 @@
       <c r="A7" t="s">
         <v>16</v>
       </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
       <c r="C7" t="s">
         <v>24</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>

--- a/Scripts/Kamper/H23/Avd B.xlsx
+++ b/Scripts/Kamper/H23/Avd B.xlsx
@@ -655,8 +655,14 @@
       <c r="A5" t="s">
         <v>14</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
       <c r="C5" t="s">
         <v>24</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>

--- a/Scripts/Kamper/H23/Avd B.xlsx
+++ b/Scripts/Kamper/H23/Avd B.xlsx
@@ -751,6 +751,12 @@
       <c r="A8" t="s">
         <v>12</v>
       </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
@@ -768,6 +774,12 @@
       <c r="A9" t="s">
         <v>16</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
@@ -785,6 +797,12 @@
       <c r="A10" t="s">
         <v>17</v>
       </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
@@ -802,6 +820,12 @@
       <c r="A11" t="s">
         <v>18</v>
       </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
       <c r="E11" t="s">
         <v>22</v>
       </c>
@@ -818,6 +842,12 @@
     <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>19</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>

--- a/Scripts/Kamper/H23/Avd B.xlsx
+++ b/Scripts/Kamper/H23/Avd B.xlsx
@@ -969,6 +969,12 @@
       <c r="A15" t="s">
         <v>21</v>
       </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
       <c r="E15" t="s">
         <v>25</v>
       </c>
@@ -2357,6 +2363,12 @@
     <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>24</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
       </c>
       <c r="E99" t="s">
         <v>18</v>

--- a/Scripts/Kamper/H23/Avd B.xlsx
+++ b/Scripts/Kamper/H23/Avd B.xlsx
@@ -1044,6 +1044,12 @@
       <c r="A19" t="s">
         <v>14</v>
       </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
       <c r="E19" t="s">
         <v>19</v>
       </c>
@@ -1061,6 +1067,12 @@
       <c r="A20" t="s">
         <v>24</v>
       </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
       <c r="E20" t="s">
         <v>20</v>
       </c>
@@ -1078,6 +1090,12 @@
       <c r="A21" t="s">
         <v>25</v>
       </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
       <c r="E21" t="s">
         <v>11</v>
       </c>
@@ -1111,6 +1129,12 @@
     <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>13</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
       </c>
       <c r="E23" t="s">
         <v>15</v>

--- a/Scripts/Kamper/H23/Avd B.xlsx
+++ b/Scripts/Kamper/H23/Avd B.xlsx
@@ -1182,6 +1182,12 @@
       <c r="A26" t="s">
         <v>11</v>
       </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
       <c r="E26" t="s">
         <v>23</v>
       </c>
@@ -1250,6 +1256,12 @@
       <c r="A30" t="s">
         <v>24</v>
       </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
       <c r="E30" t="s">
         <v>12</v>
       </c>
@@ -1266,6 +1278,12 @@
     <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>19</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
       </c>
       <c r="E31" t="s">
         <v>13</v>

--- a/Scripts/Kamper/H23/Avd B.xlsx
+++ b/Scripts/Kamper/H23/Avd B.xlsx
@@ -1027,6 +1027,12 @@
       <c r="A18" t="s">
         <v>23</v>
       </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
       <c r="E18" t="s">
         <v>21</v>
       </c>
@@ -1205,6 +1211,12 @@
       <c r="A27" t="s">
         <v>20</v>
       </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
       <c r="E27" t="s">
         <v>18</v>
       </c>
@@ -1239,6 +1251,12 @@
       <c r="A29" t="s">
         <v>15</v>
       </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
       <c r="E29" t="s">
         <v>25</v>
       </c>
@@ -1348,6 +1366,12 @@
       <c r="A35" t="s">
         <v>23</v>
       </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
       <c r="E35" t="s">
         <v>19</v>
       </c>
@@ -1365,6 +1389,12 @@
       <c r="A36" t="s">
         <v>12</v>
       </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
       <c r="E36" t="s">
         <v>20</v>
       </c>
@@ -1382,6 +1412,12 @@
       <c r="A37" t="s">
         <v>13</v>
       </c>
+      <c r="B37">
+        <v>9</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
       <c r="E37" t="s">
         <v>11</v>
       </c>
@@ -1399,6 +1435,12 @@
       <c r="A38" t="s">
         <v>18</v>
       </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
       <c r="E38" t="s">
         <v>15</v>
       </c>
@@ -2371,6 +2413,12 @@
     <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>14</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
       </c>
       <c r="E97" t="s">
         <v>23</v>

--- a/Scripts/Kamper/H23/Avd B.xlsx
+++ b/Scripts/Kamper/H23/Avd B.xlsx
@@ -1349,6 +1349,12 @@
       <c r="A34" t="s">
         <v>25</v>
       </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
       <c r="E34" t="s">
         <v>24</v>
       </c>

--- a/Scripts/Kamper/H23/Avd B.xlsx
+++ b/Scripts/Kamper/H23/Avd B.xlsx
@@ -1119,6 +1119,12 @@
       <c r="A22" t="s">
         <v>12</v>
       </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
       <c r="E22" t="s">
         <v>16</v>
       </c>
@@ -1464,6 +1470,12 @@
       <c r="A39" t="s">
         <v>14</v>
       </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
       <c r="E39" t="s">
         <v>16</v>
       </c>
@@ -1527,6 +1539,12 @@
       <c r="A43" t="s">
         <v>23</v>
       </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
       <c r="E43" t="s">
         <v>13</v>
       </c>
@@ -1544,6 +1562,12 @@
       <c r="A44" t="s">
         <v>18</v>
       </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
       <c r="E44" t="s">
         <v>25</v>
       </c>
@@ -1561,6 +1585,12 @@
       <c r="A45" t="s">
         <v>24</v>
       </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
       <c r="E45" t="s">
         <v>11</v>
       </c>
@@ -1578,6 +1608,12 @@
       <c r="A46" t="s">
         <v>15</v>
       </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
       <c r="E46" t="s">
         <v>12</v>
       </c>
@@ -1595,6 +1631,12 @@
       <c r="A47" t="s">
         <v>19</v>
       </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
       <c r="E47" t="s">
         <v>21</v>
       </c>
@@ -1611,6 +1653,12 @@
     <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>20</v>
+      </c>
+      <c r="B48">
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
       </c>
       <c r="E48" t="s">
         <v>14</v>

--- a/Scripts/Kamper/H23/Avd B.xlsx
+++ b/Scripts/Kamper/H23/Avd B.xlsx
@@ -1706,6 +1706,12 @@
       <c r="A51" t="s">
         <v>13</v>
       </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
       <c r="E51" t="s">
         <v>21</v>
       </c>
@@ -1723,6 +1729,12 @@
       <c r="A52" t="s">
         <v>21</v>
       </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
       <c r="E52" t="s">
         <v>12</v>
       </c>
@@ -1740,6 +1752,12 @@
       <c r="A53" t="s">
         <v>25</v>
       </c>
+      <c r="B53">
+        <v>6</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
       <c r="E53" t="s">
         <v>16</v>
       </c>
@@ -1757,6 +1775,12 @@
       <c r="A54" t="s">
         <v>11</v>
       </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
       <c r="E54" t="s">
         <v>15</v>
       </c>
@@ -2001,6 +2025,12 @@
     <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>16</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
       </c>
       <c r="E69" t="s">
         <v>20</v>

--- a/Scripts/Kamper/H23/Avd B.xlsx
+++ b/Scripts/Kamper/H23/Avd B.xlsx
@@ -1240,6 +1240,12 @@
       <c r="A28" t="s">
         <v>16</v>
       </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
       <c r="E28" t="s">
         <v>21</v>
       </c>
@@ -1814,6 +1820,12 @@
     <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>23</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
       </c>
       <c r="E56" t="s">
         <v>24</v>

--- a/Scripts/Kamper/H23/Avd B.xlsx
+++ b/Scripts/Kamper/H23/Avd B.xlsx
@@ -1890,6 +1890,12 @@
       <c r="A60" t="s">
         <v>15</v>
       </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
       <c r="E60" t="s">
         <v>19</v>
       </c>
@@ -1907,6 +1913,12 @@
       <c r="A61" t="s">
         <v>16</v>
       </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>6</v>
+      </c>
       <c r="E61" t="s">
         <v>24</v>
       </c>
@@ -1924,6 +1936,12 @@
       <c r="A62" t="s">
         <v>21</v>
       </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
       <c r="E62" t="s">
         <v>11</v>
       </c>
@@ -1941,6 +1959,12 @@
       <c r="A63" t="s">
         <v>19</v>
       </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
       <c r="E63" t="s">
         <v>20</v>
       </c>
@@ -1975,6 +1999,12 @@
       <c r="A65" t="s">
         <v>23</v>
       </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
       <c r="E65" t="s">
         <v>25</v>
       </c>
@@ -1991,6 +2021,12 @@
     <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>15</v>
+      </c>
+      <c r="B66">
+        <v>6</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
       </c>
       <c r="E66" t="s">
         <v>14</v>

--- a/Scripts/Kamper/H23/Avd B.xlsx
+++ b/Scripts/Kamper/H23/Avd B.xlsx
@@ -1844,6 +1844,12 @@
       <c r="A57" t="s">
         <v>18</v>
       </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
       <c r="E57" t="s">
         <v>19</v>
       </c>

--- a/Scripts/Kamper/H23/Avd B.xlsx
+++ b/Scripts/Kamper/H23/Avd B.xlsx
@@ -1804,6 +1804,12 @@
       <c r="A55" t="s">
         <v>14</v>
       </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
       <c r="E55" t="s">
         <v>13</v>
       </c>
@@ -1987,6 +1993,12 @@
     <row r="64" spans="1:11">
       <c r="A64" t="s">
         <v>18</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
       </c>
       <c r="E64" t="s">
         <v>12</v>

--- a/Scripts/Kamper/H23/Avd B.xlsx
+++ b/Scripts/Kamper/H23/Avd B.xlsx
@@ -2115,6 +2115,12 @@
       <c r="A70" t="s">
         <v>12</v>
       </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
       <c r="E70" t="s">
         <v>25</v>
       </c>
@@ -2132,6 +2138,12 @@
       <c r="A71" t="s">
         <v>23</v>
       </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>4</v>
+      </c>
       <c r="E71" t="s">
         <v>18</v>
       </c>
@@ -2149,6 +2161,12 @@
       <c r="A72" t="s">
         <v>21</v>
       </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
       <c r="E72" t="s">
         <v>18</v>
       </c>
@@ -2166,6 +2184,12 @@
       <c r="A73" t="s">
         <v>14</v>
       </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
       <c r="E73" t="s">
         <v>24</v>
       </c>
@@ -2200,6 +2224,12 @@
       <c r="A75" t="s">
         <v>23</v>
       </c>
+      <c r="B75">
+        <v>5</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
       <c r="E75" t="s">
         <v>16</v>
       </c>
@@ -2217,6 +2247,12 @@
       <c r="A76" t="s">
         <v>12</v>
       </c>
+      <c r="B76">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
       <c r="E76" t="s">
         <v>19</v>
       </c>
@@ -2234,6 +2270,12 @@
       <c r="A77" t="s">
         <v>13</v>
       </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
       <c r="E77" t="s">
         <v>25</v>
       </c>
@@ -2280,6 +2322,12 @@
       <c r="A80" t="s">
         <v>19</v>
       </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
       <c r="E80" t="s">
         <v>25</v>
       </c>
@@ -2297,6 +2345,12 @@
       <c r="A81" t="s">
         <v>18</v>
       </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
       <c r="E81" t="s">
         <v>11</v>
       </c>
@@ -2313,6 +2367,12 @@
     <row r="82" spans="1:11">
       <c r="A82" t="s">
         <v>20</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
       </c>
       <c r="E82" t="s">
         <v>21</v>

--- a/Scripts/Kamper/H23/Avd B.xlsx
+++ b/Scripts/Kamper/H23/Avd B.xlsx
@@ -2207,6 +2207,12 @@
       <c r="A74" t="s">
         <v>15</v>
       </c>
+      <c r="B74">
+        <v>5</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
       <c r="E74" t="s">
         <v>20</v>
       </c>
@@ -2408,6 +2414,12 @@
       <c r="A84" t="s">
         <v>12</v>
       </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>4</v>
+      </c>
       <c r="E84" t="s">
         <v>14</v>
       </c>
@@ -2425,6 +2437,12 @@
       <c r="A85" t="s">
         <v>16</v>
       </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>5</v>
+      </c>
       <c r="E85" t="s">
         <v>15</v>
       </c>
@@ -2442,6 +2460,12 @@
       <c r="A86" t="s">
         <v>20</v>
       </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <v>5</v>
+      </c>
       <c r="E86" t="s">
         <v>13</v>
       </c>
@@ -2459,6 +2483,12 @@
       <c r="A87" t="s">
         <v>25</v>
       </c>
+      <c r="B87">
+        <v>7</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
       <c r="E87" t="s">
         <v>14</v>
       </c>
@@ -2476,6 +2506,12 @@
       <c r="A88" t="s">
         <v>16</v>
       </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
       <c r="E88" t="s">
         <v>18</v>
       </c>
@@ -2493,6 +2529,12 @@
       <c r="A89" t="s">
         <v>24</v>
       </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
       <c r="E89" t="s">
         <v>21</v>
       </c>
@@ -2510,6 +2552,12 @@
       <c r="A90" t="s">
         <v>15</v>
       </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
       <c r="E90" t="s">
         <v>23</v>
       </c>
@@ -2527,6 +2575,12 @@
       <c r="A91" t="s">
         <v>11</v>
       </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <v>4</v>
+      </c>
       <c r="E91" t="s">
         <v>12</v>
       </c>
@@ -2572,6 +2626,12 @@
     <row r="94" spans="1:11">
       <c r="A94" t="s">
         <v>13</v>
+      </c>
+      <c r="B94">
+        <v>9</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
       </c>
       <c r="E94" t="s">
         <v>16</v>

--- a/Scripts/Kamper/H23/Avd B.xlsx
+++ b/Scripts/Kamper/H23/Avd B.xlsx
@@ -2650,6 +2650,12 @@
       <c r="A95" t="s">
         <v>25</v>
       </c>
+      <c r="B95">
+        <v>5</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
       <c r="E95" t="s">
         <v>20</v>
       </c>

--- a/Scripts/Kamper/H23/Avd B.xlsx
+++ b/Scripts/Kamper/H23/Avd B.xlsx
@@ -3864,9 +3864,13 @@
           <t>Marin FK</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr"/>
+      <c r="B98" t="n">
+        <v>3</v>
+      </c>
       <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
+      <c r="D98" t="n">
+        <v>3</v>
+      </c>
       <c r="E98" t="inlineStr">
         <is>
           <t>Tim&amp;Shænko</t>

--- a/Scripts/Kamper/H23/Avd B.xlsx
+++ b/Scripts/Kamper/H23/Avd B.xlsx
@@ -1956,9 +1956,13 @@
           <t>Chemie FK</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
       <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
+      <c r="D42" t="n">
+        <v>5</v>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>Marin FK</t>
@@ -3355,9 +3359,13 @@
           <t>Omega FK</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr"/>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
       <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="n">
+        <v>3</v>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
           <t>Energi FK</t>
@@ -3798,9 +3806,13 @@
           <t>NTNUI Champs</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr"/>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
       <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
+      <c r="D96" t="n">
+        <v>1</v>
+      </c>
       <c r="E96" t="inlineStr">
         <is>
           <t>Janus FK</t>
